--- a/工作周报/20170723实习生周报-周建宇.xlsx
+++ b/工作周报/20170723实习生周报-周建宇.xlsx
@@ -335,6 +335,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,9 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -362,13 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -653,7 +653,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -697,7 +697,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -709,7 +709,7 @@
       <c r="D2" s="4">
         <v>0.6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="3"/>
@@ -731,10 +731,10 @@
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -743,25 +743,25 @@
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -777,15 +777,15 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -801,15 +801,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -825,19 +825,19 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -853,15 +853,15 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -877,15 +877,15 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -901,15 +901,15 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -925,15 +925,15 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -946,18 +946,18 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -970,7 +970,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -994,18 +994,18 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1022,18 +1022,18 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1050,18 +1050,18 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1078,18 +1078,18 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1106,18 +1106,18 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1134,18 +1134,18 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1164,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1188,7 +1188,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1212,7 +1212,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1236,7 +1236,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1260,7 +1260,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1284,7 +1284,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1308,7 +1308,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1332,7 +1332,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1356,7 +1356,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1380,7 +1380,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1404,7 +1404,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1428,7 +1428,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1452,7 +1452,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1476,7 +1476,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1500,7 +1500,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
